--- a/Data/COORDENADAS.xlsx
+++ b/Data/COORDENADAS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Rafael\2021\txt_novo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TCC\Analise-Preditiva-do-Volume-de-Chuvas-na-regiao-de-Marab-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7BE6F0E-7B5E-4200-8A93-344028C755AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C49368A-D62B-4710-A3D0-7D6D6F9012B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF02AD73-AD18-4FCB-A471-BC337CD75EF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{CF02AD73-AD18-4FCB-A471-BC337CD75EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>ÁREA</t>
   </si>
@@ -145,6 +144,42 @@
   </si>
   <si>
     <t>48,75 °W</t>
+  </si>
+  <si>
+    <t>Atividades</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>Revisão Bibliográfica</t>
+  </si>
+  <si>
+    <t>Pré-Processamento dos Dados</t>
+  </si>
+  <si>
+    <t>Escrita do Pré-Projeto</t>
+  </si>
+  <si>
+    <t>Entrega do Pré-Projeto</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>TCC I</t>
   </si>
 </sst>
 </file>
@@ -287,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,6 +365,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,16 +691,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B60831-3185-4C9A-98A3-65A273EE8E0B}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -678,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -689,7 +733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -700,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -711,7 +755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -722,7 +766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -733,7 +777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -744,7 +788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -755,7 +799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -766,7 +810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -777,7 +821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -788,7 +832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -799,7 +843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -810,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
@@ -821,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -832,7 +876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -843,7 +887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -854,7 +898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -865,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -876,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -887,7 +931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -898,7 +942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -909,7 +953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -920,7 +964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
@@ -934,4 +978,100 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E41E95-0399-42C5-8C16-FE0559BA8872}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="15">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>